--- a/Doc/GZA/Journal_Travail_Guillaume.xlsx
+++ b/Doc/GZA/Journal_Travail_Guillaume.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA0C234-FA5D-48F1-BE05-F37600F2FD7D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F794693-414D-491C-A0A0-F66EE3874C64}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -517,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -774,7 +774,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
-        <v>43339</v>
+        <v>43186</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>26</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
-        <v>43340</v>
+        <v>43187</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>27</v>
@@ -796,7 +796,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
-        <v>43343</v>
+        <v>43190</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>28</v>

--- a/Doc/GZA/Journal_Travail_Guillaume.xlsx
+++ b/Doc/GZA/Journal_Travail_Guillaume.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F794693-414D-491C-A0A0-F66EE3874C64}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F723E22-6F9D-4E48-815A-1E26BB852A9B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -110,6 +110,24 @@
   </si>
   <si>
     <t>Rapport</t>
+  </si>
+  <si>
+    <t>Installation et configuration de pgsql sur la machine linux avec ouverture des ports</t>
+  </si>
+  <si>
+    <t>Création du script derby et mise en majuscule des noms des tables</t>
+  </si>
+  <si>
+    <t>Création et structuration de la couche d'accès au donnée</t>
+  </si>
+  <si>
+    <t>création de test unitaires</t>
+  </si>
+  <si>
+    <t>Résolution de problème avec derby</t>
+  </si>
+  <si>
+    <t>rapport</t>
   </si>
 </sst>
 </file>
@@ -517,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -816,45 +834,81 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="8"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="8"/>
+    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="11">
+        <v>43194</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="11">
+        <v>43225</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="8"/>
+      <c r="A31" s="11">
+        <v>43226</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="8"/>
+      <c r="A32" s="11">
+        <v>43201</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="8"/>
+      <c r="A33" s="11">
+        <v>43202</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="8"/>
+      <c r="A34" s="11">
+        <v>43203</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="8">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="8"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="8"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
@@ -917,7 +971,7 @@
       </c>
       <c r="C48" s="9">
         <f>SUM(C5:C47)</f>
-        <v>22.249999999999996</v>
+        <v>31.749999999999996</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/GZA/Journal_Travail_Guillaume.xlsx
+++ b/Doc/GZA/Journal_Travail_Guillaume.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F723E22-6F9D-4E48-815A-1E26BB852A9B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFF2456-F25F-412D-AB9A-07C4E8037BD7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Date</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>rapport</t>
+  </si>
+  <si>
+    <t>développement du crud et test sur ClientRepository et mise en place de la classe ORM</t>
+  </si>
+  <si>
+    <t>développement et test de ClientRepository pour derby</t>
   </si>
 </sst>
 </file>
@@ -223,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -253,6 +259,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,7 +543,7 @@
   <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -901,13 +908,23 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
+      <c r="A35" s="15">
+        <v>43204</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="13">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
+      <c r="A36" s="15">
+        <v>43204</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -971,7 +988,7 @@
       </c>
       <c r="C48" s="9">
         <f>SUM(C5:C47)</f>
-        <v>31.749999999999996</v>
+        <v>32.25</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/GZA/Journal_Travail_Guillaume.xlsx
+++ b/Doc/GZA/Journal_Travail_Guillaume.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFF2456-F25F-412D-AB9A-07C4E8037BD7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2031A3-6BB4-4761-A33C-2BE1BB740FB1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>développement et test de ClientRepository pour derby</t>
+  </si>
+  <si>
+    <t>Problème avec les id généré automatiquement dans derby</t>
   </si>
 </sst>
 </file>
@@ -256,10 +259,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,10 +561,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="15"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
@@ -908,7 +911,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="15">
+      <c r="A35" s="14">
         <v>43204</v>
       </c>
       <c r="B35" s="13" t="s">
@@ -919,18 +922,26 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="15">
+      <c r="A36" s="14">
         <v>43204</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="13"/>
+      <c r="C36" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="11"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="8"/>
+      <c r="A37" s="11">
+        <v>43204</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
@@ -988,7 +999,7 @@
       </c>
       <c r="C48" s="9">
         <f>SUM(C5:C47)</f>
-        <v>32.25</v>
+        <v>36.25</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/GZA/Journal_Travail_Guillaume.xlsx
+++ b/Doc/GZA/Journal_Travail_Guillaume.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2031A3-6BB4-4761-A33C-2BE1BB740FB1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C47136-454C-4D9E-9A36-04AF58011EF7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -137,6 +137,15 @@
   </si>
   <si>
     <t>Problème avec les id généré automatiquement dans derby</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>bankaccount PG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relllation et propriété de navigation </t>
   </si>
 </sst>
 </file>
@@ -543,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -664,7 +673,7 @@
       <c r="B12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="8">
         <v>0.5</v>
       </c>
     </row>
@@ -917,7 +926,7 @@
       <c r="B35" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="8">
         <v>0.5</v>
       </c>
     </row>
@@ -928,7 +937,7 @@
       <c r="B36" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="8">
         <v>1</v>
       </c>
     </row>
@@ -944,62 +953,121 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="11"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="8"/>
+      <c r="A38" s="11">
+        <v>43205</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="8"/>
+      <c r="A39" s="11">
+        <v>43205</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="3"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="8"/>
+      <c r="A40" s="3">
+        <v>43205</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="3"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="8"/>
+      <c r="A41" s="11">
+        <v>43205</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="3"/>
-      <c r="B42" s="4"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="12"/>
       <c r="C42" s="8"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="3"/>
-      <c r="B43" s="4"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="12"/>
       <c r="C43" s="8"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="3"/>
-      <c r="B44" s="4"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="12"/>
       <c r="C44" s="8"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="3"/>
-      <c r="B45" s="4"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="12"/>
       <c r="C45" s="8"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="3"/>
-      <c r="B46" s="4"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="12"/>
       <c r="C46" s="8"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="3"/>
-      <c r="B47" s="4"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="12"/>
       <c r="C47" s="8"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B48" s="5" t="s">
+      <c r="A48" s="3"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="8"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="3"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="8"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="3"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="8"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="3"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="8"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="3"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="8"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="3"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="8"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="3"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="8"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B55" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="9">
-        <f>SUM(C5:C47)</f>
-        <v>36.25</v>
+      <c r="C55" s="9">
+        <f>SUM(C5:C54)</f>
+        <v>40.75</v>
       </c>
     </row>
   </sheetData>
